--- a/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T06:57:07+00:00</t>
+    <t>2023-02-21T14:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:16:30+00:00</t>
+    <t>2023-02-22T07:24:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-vl-result-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T07:24:35+00:00</t>
+    <t>2023-02-22T11:00:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>A code used to indicate the category for the lab result.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -348,27 +351,27 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +393,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -398,26 +401,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
